--- a/Stuff/Products/products.xlsx
+++ b/Stuff/Products/products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Cafédirect BIO Machu Picchu mletá káva</t>
   </si>
@@ -24,21 +24,12 @@
     <t>227g</t>
   </si>
   <si>
-    <t>Tesco Finest Costa rican pražená mletá káva 227g</t>
-  </si>
-  <si>
-    <t>Vergnano 100% Arabica, mletá káva</t>
-  </si>
-  <si>
     <t>250g</t>
   </si>
   <si>
     <t>Café Natura bio káva</t>
   </si>
   <si>
-    <t>Dallmayar Prodomo 250g</t>
-  </si>
-  <si>
     <t>Davidoff Café Espresso 57 pražená mletá káva</t>
   </si>
   <si>
@@ -63,84 +54,36 @@
     <t>Lindt Excellence hořká čokoláda 70%</t>
   </si>
   <si>
-    <t>VIVANI EG hořká čokoláda 92% BIO</t>
-  </si>
-  <si>
-    <t>Côte d'Or Hořká čokoláda brut 86% 100g</t>
-  </si>
-  <si>
     <t>Lindt Excellence hořká čokoláda 90%</t>
   </si>
   <si>
     <t>VIVANI Mléčná čokoláda s lískovými oříšky BIO</t>
   </si>
   <si>
-    <t>Villars Švýcarská Mléčná Čokoláda S Kousky Lískových Ořechů 100g</t>
-  </si>
-  <si>
-    <t>Tesco Finest Swiss mléčná čokoláda s lískovými ořechy 180g</t>
-  </si>
-  <si>
     <t>180g</t>
   </si>
   <si>
     <t>Hampstead Tea BIO zelený sypaný čaj</t>
   </si>
   <si>
-    <t>Tesco Zelený čaj sypaný 80g</t>
-  </si>
-  <si>
     <t>80g</t>
   </si>
   <si>
     <t>Twinings gunpowder čaj zelený sypaný</t>
   </si>
   <si>
-    <t>Hampstead Tea BIO selekce černých čajů 20ks</t>
-  </si>
-  <si>
     <t>40g</t>
   </si>
   <si>
     <t>Sir Winston Tea Supreme English Breakfast černý čaj</t>
   </si>
   <si>
-    <t>Twinings English Breakfast čaj černý</t>
-  </si>
-  <si>
     <t>50g</t>
   </si>
   <si>
-    <t>Tesco Organic Bio černý čaj 20 x 1,5g</t>
-  </si>
-  <si>
     <t>30g</t>
   </si>
   <si>
-    <t>Jemča Indický Pravý Černý Čaj 20 X 1,5g</t>
-  </si>
-  <si>
-    <t>TEEKANNE Black Label, černý čaj, 20 sáčků, 40g</t>
-  </si>
-  <si>
-    <t>20x2g</t>
-  </si>
-  <si>
-    <t>Tesco Organic Bio zelený čaj 20 x 1,5g</t>
-  </si>
-  <si>
-    <t>20x1,5g</t>
-  </si>
-  <si>
-    <t>Tesco Balance zelený čaj 20 x 1,5g</t>
-  </si>
-  <si>
-    <t>20x1,3g</t>
-  </si>
-  <si>
-    <t>Pickwick Zelený čaj 20 x 1,5g</t>
-  </si>
-  <si>
     <t>DM bio oříšková tyčinka vegan</t>
   </si>
   <si>
@@ -150,92 +93,140 @@
     <t>35g</t>
   </si>
   <si>
-    <t>Chimpanzee Energy Bar CASHEW &amp; CARAMEL 55g</t>
-  </si>
-  <si>
     <t>DM bio ovocná tyčinka</t>
   </si>
   <si>
-    <t>Emco Tyčinka 100% Ovoce S Višněmi 30g</t>
-  </si>
-  <si>
-    <t>Energetická tyčinka rozinka &amp; vlašský ořech Chimpanzee 55 g</t>
-  </si>
-  <si>
     <t>Bio datle sušené</t>
   </si>
   <si>
     <t>200g</t>
   </si>
   <si>
-    <t>Datle tácek 200g</t>
-  </si>
-  <si>
-    <t>Tesco Datle vypeckované 400g</t>
-  </si>
-  <si>
     <t>400g</t>
   </si>
   <si>
-    <t>Bio Kešu ořechy</t>
-  </si>
-  <si>
     <t>150g</t>
   </si>
   <si>
-    <t>Tesco Pražené solené kešu ořechy 150g</t>
-  </si>
-  <si>
-    <t>Dr. Ensa Exclusive Kešu pražené solené 150g</t>
-  </si>
-  <si>
-    <t>Tesco Organic Bio jablečná šťáva 500ml</t>
-  </si>
-  <si>
     <t>0,5l</t>
   </si>
   <si>
-    <t>RIO FRESH 100% jablečná šťáva 200ml</t>
-  </si>
-  <si>
     <t>200ml</t>
   </si>
   <si>
-    <t>RIO FRESH 100% šťáva jablečná chlazená</t>
-  </si>
-  <si>
     <t>0,75l</t>
   </si>
   <si>
-    <t>Tesco Organic Pomerančová šťáva z koncentrátu 1l</t>
-  </si>
-  <si>
     <t>1l</t>
   </si>
   <si>
-    <t>Rauch Happy Day 100% pomerančová štáva s dužinou vyrobená z koncentrátu 1l</t>
-  </si>
-  <si>
-    <t>RIO FRESH 100% Pomerančová Šťáva Lisovaná Za Studena 1l</t>
+    <t>VIVANI hořká čokoláda 92% BIO</t>
+  </si>
+  <si>
+    <t>Hampstead Tea BIO selekce černých čajů</t>
+  </si>
+  <si>
+    <t>Tesco Organic bio černý čaj</t>
+  </si>
+  <si>
+    <t>Tesco Organic bio zelený čaj</t>
+  </si>
+  <si>
+    <t>Bio kešu ořechy</t>
+  </si>
+  <si>
+    <t>Tesco Organic bio jablečná šťáva</t>
+  </si>
+  <si>
+    <t>Tesco Organic bio pomerančová šťáva z koncentrátu</t>
+  </si>
+  <si>
+    <t>Tesco Finest Costarican pražená mletá káva</t>
+  </si>
+  <si>
+    <t>Dallmayar Prodomo mletá káva</t>
+  </si>
+  <si>
+    <t>Côte d'Or hořká čokoláda brut 86%</t>
+  </si>
+  <si>
+    <t>Villars švýcarská mléčná čokoláda s kousky lískových ořechů</t>
+  </si>
+  <si>
+    <t>Tesco zelený čaj sypaný</t>
+  </si>
+  <si>
+    <t>Jemča indický pravý černý čaj</t>
+  </si>
+  <si>
+    <t>Tesco Balance zelený čaj</t>
+  </si>
+  <si>
+    <t>26g</t>
+  </si>
+  <si>
+    <t>Emco tyčinka 100% ovoce s višněmi</t>
+  </si>
+  <si>
+    <t>Datle tácek</t>
+  </si>
+  <si>
+    <t>Tesco pražené solené kešu ořechy</t>
+  </si>
+  <si>
+    <t>Rio Fresh 100% jablečná šťáva</t>
+  </si>
+  <si>
+    <t>Rauch Happy Day 100% pomerančová štáva s dužinou z koncentrátu</t>
+  </si>
+  <si>
+    <t>Vergnano 100% Arabica mletá káva</t>
+  </si>
+  <si>
+    <t>Tesco Finest Swiss mléčná čokoláda s lískovými ořechy</t>
+  </si>
+  <si>
+    <t>Twinings English breakfast černý čaj</t>
+  </si>
+  <si>
+    <t>Teekanne Black Label černý čaj</t>
+  </si>
+  <si>
+    <t>Pickwick zelený čaj</t>
+  </si>
+  <si>
+    <t>Energetická tyčinka Chimpanzee kešu a karamel</t>
+  </si>
+  <si>
+    <t>55g</t>
+  </si>
+  <si>
+    <t>Energetická tyčinka Chimpanzee rozinka a vlašský ořech</t>
+  </si>
+  <si>
+    <t>Tesco datle vypeckované</t>
+  </si>
+  <si>
+    <t>Dr. Ensa Exclusive kešu ořechy pražené a solené</t>
+  </si>
+  <si>
+    <t>Rio Fresh 100% šťáva jablečná chlazená</t>
+  </si>
+  <si>
+    <t>Rio Fresh 100% pomerančová šťáva lisovaná za studena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="#,##0\ &quot;Kč&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -264,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,25 +278,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -610,7 +609,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -623,7 +622,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2">
@@ -632,10 +631,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>140</v>
@@ -643,10 +642,10 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -654,10 +653,10 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -665,10 +664,10 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>72</v>
@@ -676,10 +675,10 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>75</v>
@@ -687,10 +686,10 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>115</v>
@@ -698,10 +697,10 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>90</v>
@@ -709,10 +708,10 @@
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>32</v>
@@ -720,10 +719,10 @@
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>32</v>
@@ -731,10 +730,10 @@
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>28</v>
@@ -742,10 +741,10 @@
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>28</v>
@@ -753,10 +752,10 @@
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>50</v>
@@ -764,10 +763,10 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>90</v>
@@ -775,10 +774,10 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>40</v>
@@ -786,10 +785,10 @@
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>55</v>
@@ -797,9 +796,9 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2">
@@ -808,10 +807,10 @@
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
@@ -819,10 +818,10 @@
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <v>50</v>
@@ -830,10 +829,10 @@
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>50</v>
@@ -841,10 +840,10 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>60</v>
@@ -852,10 +851,10 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
@@ -863,10 +862,10 @@
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
@@ -874,10 +873,10 @@
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>50</v>
@@ -885,10 +884,10 @@
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>16</v>
@@ -896,10 +895,10 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="2">
         <v>30</v>
@@ -907,10 +906,10 @@
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <v>20</v>
@@ -918,10 +917,10 @@
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>20</v>
@@ -931,8 +930,8 @@
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>49</v>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="2">
         <v>19</v>
@@ -940,10 +939,10 @@
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>70</v>
@@ -951,10 +950,10 @@
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
@@ -962,10 +961,10 @@
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="2">
         <v>46</v>
@@ -973,10 +972,10 @@
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="2">
         <v>200</v>
@@ -984,10 +983,10 @@
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>200</v>
@@ -995,10 +994,10 @@
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>75</v>
@@ -1006,10 +1005,10 @@
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>74</v>
@@ -1017,10 +1016,10 @@
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>74</v>
@@ -1028,10 +1027,10 @@
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C38" s="2">
         <v>89</v>
@@ -1039,10 +1038,10 @@
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>150</v>
@@ -1050,10 +1049,10 @@
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C40" s="2">
         <v>100</v>
@@ -1061,10 +1060,10 @@
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>38</v>
@@ -1072,10 +1071,10 @@
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>46</v>
@@ -1083,10 +1082,10 @@
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="2">
         <v>40</v>
@@ -1094,10 +1093,10 @@
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="2">
         <v>40</v>
@@ -1105,32 +1104,32 @@
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C45" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C47" s="2">
         <v>60</v>
@@ -1138,10 +1137,10 @@
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>76</v>
